--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t xml:space="preserve">Departamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">pob</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">CARHUAZ</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
   </si>
   <si>
     <t xml:space="preserve">CASMA</t>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t xml:space="preserve">ALTO AMAZONAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
   </si>
   <si>
     <t xml:space="preserve">LORETO</t>
@@ -4203,19 +4206,19 @@
         <v>159</v>
       </c>
       <c r="C139" t="n">
-        <v>62165</v>
+        <v>49571</v>
       </c>
       <c r="D139" t="n">
-        <v>26311</v>
+        <v>13598</v>
       </c>
       <c r="E139" t="n">
-        <v>35854</v>
+        <v>35973</v>
       </c>
       <c r="F139" t="n">
-        <v>33247</v>
+        <v>25223</v>
       </c>
       <c r="G139" t="n">
-        <v>28918</v>
+        <v>24348</v>
       </c>
     </row>
     <row r="140">
@@ -4226,19 +4229,19 @@
         <v>160</v>
       </c>
       <c r="C140" t="n">
-        <v>54829</v>
+        <v>62165</v>
       </c>
       <c r="D140" t="n">
-        <v>16574</v>
+        <v>26311</v>
       </c>
       <c r="E140" t="n">
-        <v>38255</v>
+        <v>35854</v>
       </c>
       <c r="F140" t="n">
-        <v>29366</v>
+        <v>33247</v>
       </c>
       <c r="G140" t="n">
-        <v>25463</v>
+        <v>28918</v>
       </c>
     </row>
     <row r="141">
@@ -4249,19 +4252,19 @@
         <v>161</v>
       </c>
       <c r="C141" t="n">
-        <v>492992</v>
+        <v>54829</v>
       </c>
       <c r="D141" t="n">
-        <v>392682</v>
+        <v>16574</v>
       </c>
       <c r="E141" t="n">
-        <v>100310</v>
+        <v>38255</v>
       </c>
       <c r="F141" t="n">
-        <v>248695</v>
+        <v>29366</v>
       </c>
       <c r="G141" t="n">
-        <v>244297</v>
+        <v>25463</v>
       </c>
     </row>
     <row r="142">
@@ -4272,19 +4275,19 @@
         <v>162</v>
       </c>
       <c r="C142" t="n">
-        <v>65692</v>
+        <v>492992</v>
       </c>
       <c r="D142" t="n">
-        <v>37559</v>
+        <v>392682</v>
       </c>
       <c r="E142" t="n">
-        <v>28133</v>
+        <v>100310</v>
       </c>
       <c r="F142" t="n">
-        <v>34416</v>
+        <v>248695</v>
       </c>
       <c r="G142" t="n">
-        <v>31276</v>
+        <v>244297</v>
       </c>
     </row>
     <row r="143">
@@ -4295,1214 +4298,1237 @@
         <v>163</v>
       </c>
       <c r="C143" t="n">
-        <v>61816</v>
+        <v>65692</v>
       </c>
       <c r="D143" t="n">
-        <v>33885</v>
+        <v>37559</v>
       </c>
       <c r="E143" t="n">
-        <v>27931</v>
+        <v>28133</v>
       </c>
       <c r="F143" t="n">
-        <v>32556</v>
+        <v>34416</v>
       </c>
       <c r="G143" t="n">
-        <v>29260</v>
+        <v>31276</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" t="s">
         <v>164</v>
       </c>
-      <c r="B144" t="s">
-        <v>165</v>
-      </c>
       <c r="C144" t="n">
-        <v>20290</v>
+        <v>61816</v>
       </c>
       <c r="D144" t="n">
-        <v>7261</v>
+        <v>33885</v>
       </c>
       <c r="E144" t="n">
-        <v>13029</v>
+        <v>27931</v>
       </c>
       <c r="F144" t="n">
-        <v>11620</v>
+        <v>32556</v>
       </c>
       <c r="G144" t="n">
-        <v>8670</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
         <v>166</v>
       </c>
       <c r="C145" t="n">
-        <v>10742</v>
+        <v>20290</v>
       </c>
       <c r="D145" t="n">
-        <v>7604</v>
+        <v>7261</v>
       </c>
       <c r="E145" t="n">
-        <v>3138</v>
+        <v>13029</v>
       </c>
       <c r="F145" t="n">
-        <v>6448</v>
+        <v>11620</v>
       </c>
       <c r="G145" t="n">
-        <v>4294</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
         <v>167</v>
       </c>
       <c r="C146" t="n">
-        <v>78523</v>
+        <v>10742</v>
       </c>
       <c r="D146" t="n">
-        <v>65444</v>
+        <v>7604</v>
       </c>
       <c r="E146" t="n">
-        <v>13079</v>
+        <v>3138</v>
       </c>
       <c r="F146" t="n">
-        <v>41431</v>
+        <v>6448</v>
       </c>
       <c r="G146" t="n">
-        <v>37092</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" t="s">
         <v>168</v>
       </c>
-      <c r="B147" t="s">
-        <v>169</v>
-      </c>
       <c r="C147" t="n">
-        <v>24904</v>
+        <v>78523</v>
       </c>
       <c r="D147" t="n">
-        <v>10831</v>
+        <v>65444</v>
       </c>
       <c r="E147" t="n">
-        <v>14073</v>
+        <v>13079</v>
       </c>
       <c r="F147" t="n">
-        <v>13289</v>
+        <v>41431</v>
       </c>
       <c r="G147" t="n">
-        <v>11615</v>
+        <v>37092</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B148" t="s">
         <v>170</v>
       </c>
       <c r="C148" t="n">
-        <v>63780</v>
+        <v>24904</v>
       </c>
       <c r="D148" t="n">
-        <v>63068</v>
+        <v>10831</v>
       </c>
       <c r="E148" t="n">
-        <v>712</v>
+        <v>14073</v>
       </c>
       <c r="F148" t="n">
-        <v>32332</v>
+        <v>13289</v>
       </c>
       <c r="G148" t="n">
-        <v>31448</v>
+        <v>11615</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
         <v>171</v>
       </c>
       <c r="C149" t="n">
-        <v>72849</v>
+        <v>63780</v>
       </c>
       <c r="D149" t="n">
-        <v>62797</v>
+        <v>63068</v>
       </c>
       <c r="E149" t="n">
-        <v>10052</v>
+        <v>712</v>
       </c>
       <c r="F149" t="n">
-        <v>37266</v>
+        <v>32332</v>
       </c>
       <c r="G149" t="n">
-        <v>35583</v>
+        <v>31448</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" t="s">
         <v>172</v>
       </c>
-      <c r="B150" t="s">
-        <v>173</v>
-      </c>
       <c r="C150" t="n">
-        <v>47803</v>
+        <v>72849</v>
       </c>
       <c r="D150" t="n">
-        <v>27967</v>
+        <v>62797</v>
       </c>
       <c r="E150" t="n">
-        <v>19836</v>
+        <v>10052</v>
       </c>
       <c r="F150" t="n">
-        <v>24029</v>
+        <v>37266</v>
       </c>
       <c r="G150" t="n">
-        <v>23774</v>
+        <v>35583</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
         <v>174</v>
       </c>
       <c r="C151" t="n">
-        <v>81929</v>
+        <v>47803</v>
       </c>
       <c r="D151" t="n">
-        <v>30805</v>
+        <v>27967</v>
       </c>
       <c r="E151" t="n">
-        <v>51124</v>
+        <v>19836</v>
       </c>
       <c r="F151" t="n">
-        <v>43328</v>
+        <v>24029</v>
       </c>
       <c r="G151" t="n">
-        <v>38601</v>
+        <v>23774</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B152" t="s">
         <v>175</v>
       </c>
       <c r="C152" t="n">
-        <v>150717</v>
+        <v>81929</v>
       </c>
       <c r="D152" t="n">
-        <v>114821</v>
+        <v>30805</v>
       </c>
       <c r="E152" t="n">
-        <v>35896</v>
+        <v>51124</v>
       </c>
       <c r="F152" t="n">
-        <v>76788</v>
+        <v>43328</v>
       </c>
       <c r="G152" t="n">
-        <v>73929</v>
+        <v>38601</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" t="s">
         <v>176</v>
       </c>
-      <c r="B153" t="s">
-        <v>177</v>
-      </c>
       <c r="C153" t="n">
-        <v>138403</v>
+        <v>150717</v>
       </c>
       <c r="D153" t="n">
-        <v>15845</v>
+        <v>114821</v>
       </c>
       <c r="E153" t="n">
-        <v>122558</v>
+        <v>35896</v>
       </c>
       <c r="F153" t="n">
-        <v>70777</v>
+        <v>76788</v>
       </c>
       <c r="G153" t="n">
-        <v>67626</v>
+        <v>73929</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
         <v>178</v>
       </c>
       <c r="C154" t="n">
-        <v>124298</v>
+        <v>138403</v>
       </c>
       <c r="D154" t="n">
-        <v>15358</v>
+        <v>15845</v>
       </c>
       <c r="E154" t="n">
-        <v>108940</v>
+        <v>122558</v>
       </c>
       <c r="F154" t="n">
-        <v>62396</v>
+        <v>70777</v>
       </c>
       <c r="G154" t="n">
-        <v>61902</v>
+        <v>67626</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
         <v>179</v>
       </c>
       <c r="C155" t="n">
-        <v>159693</v>
+        <v>124298</v>
       </c>
       <c r="D155" t="n">
-        <v>91798</v>
+        <v>15358</v>
       </c>
       <c r="E155" t="n">
-        <v>67895</v>
+        <v>108940</v>
       </c>
       <c r="F155" t="n">
-        <v>80951</v>
+        <v>62396</v>
       </c>
       <c r="G155" t="n">
-        <v>78742</v>
+        <v>61902</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
         <v>180</v>
       </c>
       <c r="C156" t="n">
-        <v>108535</v>
+        <v>159693</v>
       </c>
       <c r="D156" t="n">
-        <v>103615</v>
+        <v>91798</v>
       </c>
       <c r="E156" t="n">
-        <v>4920</v>
+        <v>67895</v>
       </c>
       <c r="F156" t="n">
-        <v>54581</v>
+        <v>80951</v>
       </c>
       <c r="G156" t="n">
-        <v>53954</v>
+        <v>78742</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
         <v>181</v>
       </c>
       <c r="C157" t="n">
-        <v>665991</v>
+        <v>108535</v>
       </c>
       <c r="D157" t="n">
-        <v>573139</v>
+        <v>103615</v>
       </c>
       <c r="E157" t="n">
-        <v>92852</v>
+        <v>4920</v>
       </c>
       <c r="F157" t="n">
-        <v>327852</v>
+        <v>54581</v>
       </c>
       <c r="G157" t="n">
-        <v>338139</v>
+        <v>53954</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
         <v>182</v>
       </c>
       <c r="C158" t="n">
-        <v>62319</v>
+        <v>665991</v>
       </c>
       <c r="D158" t="n">
-        <v>58497</v>
+        <v>573139</v>
       </c>
       <c r="E158" t="n">
-        <v>3822</v>
+        <v>92852</v>
       </c>
       <c r="F158" t="n">
-        <v>31233</v>
+        <v>327852</v>
       </c>
       <c r="G158" t="n">
-        <v>31086</v>
+        <v>338139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s">
         <v>183</v>
       </c>
       <c r="C159" t="n">
-        <v>287680</v>
+        <v>62319</v>
       </c>
       <c r="D159" t="n">
-        <v>258723</v>
+        <v>58497</v>
       </c>
       <c r="E159" t="n">
-        <v>28957</v>
+        <v>3822</v>
       </c>
       <c r="F159" t="n">
-        <v>142411</v>
+        <v>31233</v>
       </c>
       <c r="G159" t="n">
-        <v>145269</v>
+        <v>31086</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s">
         <v>184</v>
       </c>
       <c r="C160" t="n">
-        <v>129396</v>
+        <v>287680</v>
       </c>
       <c r="D160" t="n">
-        <v>126866</v>
+        <v>258723</v>
       </c>
       <c r="E160" t="n">
-        <v>2530</v>
+        <v>28957</v>
       </c>
       <c r="F160" t="n">
-        <v>65002</v>
+        <v>142411</v>
       </c>
       <c r="G160" t="n">
-        <v>64394</v>
+        <v>145269</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" t="s">
         <v>185</v>
       </c>
-      <c r="B161" t="s">
-        <v>186</v>
-      </c>
       <c r="C161" t="n">
-        <v>876877</v>
+        <v>129396</v>
       </c>
       <c r="D161" t="n">
-        <v>876877</v>
+        <v>126866</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="F161" t="n">
-        <v>430582</v>
+        <v>65002</v>
       </c>
       <c r="G161" t="n">
-        <v>446295</v>
+        <v>64394</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162" t="s">
         <v>187</v>
       </c>
-      <c r="B162" t="s">
-        <v>188</v>
-      </c>
       <c r="C162" t="n">
-        <v>136829</v>
+        <v>876877</v>
       </c>
       <c r="D162" t="n">
-        <v>37508</v>
+        <v>876877</v>
       </c>
       <c r="E162" t="n">
-        <v>99321</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>66613</v>
+        <v>430582</v>
       </c>
       <c r="G162" t="n">
-        <v>70216</v>
+        <v>446295</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
         <v>189</v>
       </c>
       <c r="C163" t="n">
-        <v>73946</v>
+        <v>136829</v>
       </c>
       <c r="D163" t="n">
-        <v>30329</v>
+        <v>37508</v>
       </c>
       <c r="E163" t="n">
-        <v>43617</v>
+        <v>99321</v>
       </c>
       <c r="F163" t="n">
-        <v>38408</v>
+        <v>66613</v>
       </c>
       <c r="G163" t="n">
-        <v>35538</v>
+        <v>70216</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B164" t="s">
         <v>190</v>
       </c>
       <c r="C164" t="n">
-        <v>126259</v>
+        <v>73946</v>
       </c>
       <c r="D164" t="n">
-        <v>35767</v>
+        <v>30329</v>
       </c>
       <c r="E164" t="n">
-        <v>90492</v>
+        <v>43617</v>
       </c>
       <c r="F164" t="n">
-        <v>64534</v>
+        <v>38408</v>
       </c>
       <c r="G164" t="n">
-        <v>61725</v>
+        <v>35538</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
         <v>191</v>
       </c>
       <c r="C165" t="n">
-        <v>81059</v>
+        <v>126259</v>
       </c>
       <c r="D165" t="n">
-        <v>25376</v>
+        <v>35767</v>
       </c>
       <c r="E165" t="n">
-        <v>55683</v>
+        <v>90492</v>
       </c>
       <c r="F165" t="n">
-        <v>41148</v>
+        <v>64534</v>
       </c>
       <c r="G165" t="n">
-        <v>39911</v>
+        <v>61725</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
         <v>192</v>
       </c>
       <c r="C166" t="n">
-        <v>69522</v>
+        <v>81059</v>
       </c>
       <c r="D166" t="n">
-        <v>13851</v>
+        <v>25376</v>
       </c>
       <c r="E166" t="n">
-        <v>55671</v>
+        <v>55683</v>
       </c>
       <c r="F166" t="n">
-        <v>33780</v>
+        <v>41148</v>
       </c>
       <c r="G166" t="n">
-        <v>35742</v>
+        <v>39911</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B167" t="s">
         <v>193</v>
       </c>
       <c r="C167" t="n">
-        <v>48223</v>
+        <v>69522</v>
       </c>
       <c r="D167" t="n">
-        <v>18659</v>
+        <v>13851</v>
       </c>
       <c r="E167" t="n">
-        <v>29564</v>
+        <v>55671</v>
       </c>
       <c r="F167" t="n">
-        <v>24061</v>
+        <v>33780</v>
       </c>
       <c r="G167" t="n">
-        <v>24162</v>
+        <v>35742</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
         <v>194</v>
       </c>
       <c r="C168" t="n">
-        <v>74735</v>
+        <v>48223</v>
       </c>
       <c r="D168" t="n">
-        <v>35536</v>
+        <v>18659</v>
       </c>
       <c r="E168" t="n">
-        <v>39199</v>
+        <v>29564</v>
       </c>
       <c r="F168" t="n">
-        <v>36421</v>
+        <v>24061</v>
       </c>
       <c r="G168" t="n">
-        <v>38314</v>
+        <v>24162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B169" t="s">
         <v>195</v>
       </c>
       <c r="C169" t="n">
-        <v>27819</v>
+        <v>74735</v>
       </c>
       <c r="D169" t="n">
-        <v>7950</v>
+        <v>35536</v>
       </c>
       <c r="E169" t="n">
-        <v>19869</v>
+        <v>39199</v>
       </c>
       <c r="F169" t="n">
-        <v>13647</v>
+        <v>36421</v>
       </c>
       <c r="G169" t="n">
-        <v>14172</v>
+        <v>38314</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B170" t="s">
         <v>196</v>
       </c>
       <c r="C170" t="n">
-        <v>229236</v>
+        <v>27819</v>
       </c>
       <c r="D170" t="n">
-        <v>136754</v>
+        <v>7950</v>
       </c>
       <c r="E170" t="n">
-        <v>92482</v>
+        <v>19869</v>
       </c>
       <c r="F170" t="n">
-        <v>113121</v>
+        <v>13647</v>
       </c>
       <c r="G170" t="n">
-        <v>116115</v>
+        <v>14172</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
         <v>197</v>
       </c>
       <c r="C171" t="n">
-        <v>50490</v>
+        <v>229236</v>
       </c>
       <c r="D171" t="n">
-        <v>33665</v>
+        <v>136754</v>
       </c>
       <c r="E171" t="n">
-        <v>16825</v>
+        <v>92482</v>
       </c>
       <c r="F171" t="n">
-        <v>26862</v>
+        <v>113121</v>
       </c>
       <c r="G171" t="n">
-        <v>23628</v>
+        <v>116115</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B172" t="s">
         <v>198</v>
       </c>
       <c r="C172" t="n">
-        <v>240776</v>
+        <v>50490</v>
       </c>
       <c r="D172" t="n">
-        <v>220610</v>
+        <v>33665</v>
       </c>
       <c r="E172" t="n">
-        <v>20166</v>
+        <v>16825</v>
       </c>
       <c r="F172" t="n">
-        <v>118151</v>
+        <v>26862</v>
       </c>
       <c r="G172" t="n">
-        <v>122625</v>
+        <v>23628</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B173" t="s">
         <v>199</v>
       </c>
       <c r="C173" t="n">
-        <v>62147</v>
+        <v>240776</v>
       </c>
       <c r="D173" t="n">
-        <v>16543</v>
+        <v>220610</v>
       </c>
       <c r="E173" t="n">
-        <v>45604</v>
+        <v>20166</v>
       </c>
       <c r="F173" t="n">
-        <v>33265</v>
+        <v>118151</v>
       </c>
       <c r="G173" t="n">
-        <v>28882</v>
+        <v>122625</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B174" t="s">
         <v>200</v>
       </c>
       <c r="C174" t="n">
-        <v>47400</v>
+        <v>62147</v>
       </c>
       <c r="D174" t="n">
-        <v>17343</v>
+        <v>16543</v>
       </c>
       <c r="E174" t="n">
-        <v>30057</v>
+        <v>45604</v>
       </c>
       <c r="F174" t="n">
-        <v>23321</v>
+        <v>33265</v>
       </c>
       <c r="G174" t="n">
-        <v>24079</v>
+        <v>28882</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>188</v>
+      </c>
+      <c r="B175" t="s">
         <v>201</v>
       </c>
-      <c r="B175" t="s">
-        <v>202</v>
-      </c>
       <c r="C175" t="n">
-        <v>49293</v>
+        <v>47400</v>
       </c>
       <c r="D175" t="n">
-        <v>27181</v>
+        <v>17343</v>
       </c>
       <c r="E175" t="n">
-        <v>22112</v>
+        <v>30057</v>
       </c>
       <c r="F175" t="n">
-        <v>26361</v>
+        <v>23321</v>
       </c>
       <c r="G175" t="n">
-        <v>22932</v>
+        <v>24079</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
         <v>203</v>
       </c>
       <c r="C176" t="n">
-        <v>33638</v>
+        <v>49293</v>
       </c>
       <c r="D176" t="n">
-        <v>13087</v>
+        <v>27181</v>
       </c>
       <c r="E176" t="n">
-        <v>20551</v>
+        <v>22112</v>
       </c>
       <c r="F176" t="n">
-        <v>17914</v>
+        <v>26361</v>
       </c>
       <c r="G176" t="n">
-        <v>15724</v>
+        <v>22932</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B177" t="s">
         <v>204</v>
       </c>
       <c r="C177" t="n">
-        <v>24448</v>
+        <v>33638</v>
       </c>
       <c r="D177" t="n">
-        <v>13281</v>
+        <v>13087</v>
       </c>
       <c r="E177" t="n">
-        <v>11167</v>
+        <v>20551</v>
       </c>
       <c r="F177" t="n">
-        <v>12916</v>
+        <v>17914</v>
       </c>
       <c r="G177" t="n">
-        <v>11532</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B178" t="s">
         <v>205</v>
       </c>
       <c r="C178" t="n">
-        <v>79075</v>
+        <v>24448</v>
       </c>
       <c r="D178" t="n">
-        <v>37822</v>
+        <v>13281</v>
       </c>
       <c r="E178" t="n">
-        <v>41253</v>
+        <v>11167</v>
       </c>
       <c r="F178" t="n">
-        <v>41489</v>
+        <v>12916</v>
       </c>
       <c r="G178" t="n">
-        <v>37586</v>
+        <v>11532</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B179" t="s">
         <v>206</v>
       </c>
       <c r="C179" t="n">
-        <v>50884</v>
+        <v>79075</v>
       </c>
       <c r="D179" t="n">
-        <v>31626</v>
+        <v>37822</v>
       </c>
       <c r="E179" t="n">
-        <v>19258</v>
+        <v>41253</v>
       </c>
       <c r="F179" t="n">
-        <v>27048</v>
+        <v>41489</v>
       </c>
       <c r="G179" t="n">
-        <v>23836</v>
+        <v>37586</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180" t="s">
         <v>207</v>
       </c>
       <c r="C180" t="n">
-        <v>115389</v>
+        <v>50884</v>
       </c>
       <c r="D180" t="n">
-        <v>68406</v>
+        <v>31626</v>
       </c>
       <c r="E180" t="n">
-        <v>46983</v>
+        <v>19258</v>
       </c>
       <c r="F180" t="n">
-        <v>59829</v>
+        <v>27048</v>
       </c>
       <c r="G180" t="n">
-        <v>55560</v>
+        <v>23836</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B181" t="s">
         <v>208</v>
       </c>
       <c r="C181" t="n">
-        <v>37721</v>
+        <v>115389</v>
       </c>
       <c r="D181" t="n">
-        <v>23482</v>
+        <v>68406</v>
       </c>
       <c r="E181" t="n">
-        <v>14239</v>
+        <v>46983</v>
       </c>
       <c r="F181" t="n">
-        <v>20001</v>
+        <v>59829</v>
       </c>
       <c r="G181" t="n">
-        <v>17720</v>
+        <v>55560</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B182" t="s">
         <v>209</v>
       </c>
       <c r="C182" t="n">
-        <v>104882</v>
+        <v>37721</v>
       </c>
       <c r="D182" t="n">
-        <v>75251</v>
+        <v>23482</v>
       </c>
       <c r="E182" t="n">
-        <v>29631</v>
+        <v>14239</v>
       </c>
       <c r="F182" t="n">
-        <v>54292</v>
+        <v>20001</v>
       </c>
       <c r="G182" t="n">
-        <v>50590</v>
+        <v>17720</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B183" t="s">
         <v>210</v>
       </c>
       <c r="C183" t="n">
-        <v>161132</v>
+        <v>104882</v>
       </c>
       <c r="D183" t="n">
-        <v>146109</v>
+        <v>75251</v>
       </c>
       <c r="E183" t="n">
-        <v>15023</v>
+        <v>29631</v>
       </c>
       <c r="F183" t="n">
-        <v>82159</v>
+        <v>54292</v>
       </c>
       <c r="G183" t="n">
-        <v>78973</v>
+        <v>50590</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B184" t="s">
         <v>211</v>
       </c>
       <c r="C184" t="n">
-        <v>72346</v>
+        <v>161132</v>
       </c>
       <c r="D184" t="n">
-        <v>36510</v>
+        <v>146109</v>
       </c>
       <c r="E184" t="n">
-        <v>35836</v>
+        <v>15023</v>
       </c>
       <c r="F184" t="n">
-        <v>40508</v>
+        <v>82159</v>
       </c>
       <c r="G184" t="n">
-        <v>31838</v>
+        <v>78973</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" t="s">
         <v>212</v>
       </c>
-      <c r="B185" t="s">
-        <v>213</v>
-      </c>
       <c r="C185" t="n">
-        <v>8373</v>
+        <v>72346</v>
       </c>
       <c r="D185" t="n">
-        <v>5436</v>
+        <v>36510</v>
       </c>
       <c r="E185" t="n">
-        <v>2937</v>
+        <v>35836</v>
       </c>
       <c r="F185" t="n">
-        <v>4379</v>
+        <v>40508</v>
       </c>
       <c r="G185" t="n">
-        <v>3994</v>
+        <v>31838</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B186" t="s">
         <v>214</v>
       </c>
       <c r="C186" t="n">
-        <v>9872</v>
+        <v>8373</v>
       </c>
       <c r="D186" t="n">
-        <v>6202</v>
+        <v>5436</v>
       </c>
       <c r="E186" t="n">
-        <v>3670</v>
+        <v>2937</v>
       </c>
       <c r="F186" t="n">
-        <v>5920</v>
+        <v>4379</v>
       </c>
       <c r="G186" t="n">
-        <v>3952</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
         <v>215</v>
       </c>
       <c r="C187" t="n">
-        <v>262731</v>
+        <v>9872</v>
       </c>
       <c r="D187" t="n">
-        <v>245930</v>
+        <v>6202</v>
       </c>
       <c r="E187" t="n">
-        <v>16801</v>
+        <v>3670</v>
       </c>
       <c r="F187" t="n">
-        <v>130212</v>
+        <v>5920</v>
       </c>
       <c r="G187" t="n">
-        <v>132519</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
         <v>216</v>
       </c>
       <c r="C188" t="n">
-        <v>7805</v>
+        <v>262731</v>
       </c>
       <c r="D188" t="n">
-        <v>6073</v>
+        <v>245930</v>
       </c>
       <c r="E188" t="n">
-        <v>1732</v>
+        <v>16801</v>
       </c>
       <c r="F188" t="n">
-        <v>4017</v>
+        <v>130212</v>
       </c>
       <c r="G188" t="n">
-        <v>3788</v>
+        <v>132519</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B189" t="s">
         <v>217</v>
       </c>
-      <c r="B189" t="s">
-        <v>218</v>
-      </c>
       <c r="C189" t="n">
-        <v>16914</v>
+        <v>7805</v>
       </c>
       <c r="D189" t="n">
-        <v>13244</v>
+        <v>6073</v>
       </c>
       <c r="E189" t="n">
-        <v>3670</v>
+        <v>1732</v>
       </c>
       <c r="F189" t="n">
-        <v>8951</v>
+        <v>4017</v>
       </c>
       <c r="G189" t="n">
-        <v>7963</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B190" t="s">
         <v>219</v>
       </c>
       <c r="C190" t="n">
-        <v>142338</v>
+        <v>16914</v>
       </c>
       <c r="D190" t="n">
-        <v>131105</v>
+        <v>13244</v>
       </c>
       <c r="E190" t="n">
-        <v>11233</v>
+        <v>3670</v>
       </c>
       <c r="F190" t="n">
-        <v>73057</v>
+        <v>8951</v>
       </c>
       <c r="G190" t="n">
-        <v>69281</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B191" t="s">
         <v>220</v>
       </c>
       <c r="C191" t="n">
-        <v>41054</v>
+        <v>142338</v>
       </c>
       <c r="D191" t="n">
-        <v>37347</v>
+        <v>131105</v>
       </c>
       <c r="E191" t="n">
-        <v>3707</v>
+        <v>11233</v>
       </c>
       <c r="F191" t="n">
-        <v>21695</v>
+        <v>73057</v>
       </c>
       <c r="G191" t="n">
-        <v>19359</v>
+        <v>69281</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>218</v>
+      </c>
+      <c r="B192" t="s">
         <v>221</v>
       </c>
-      <c r="B192" t="s">
-        <v>222</v>
-      </c>
       <c r="C192" t="n">
-        <v>43933</v>
+        <v>41054</v>
       </c>
       <c r="D192" t="n">
-        <v>15428</v>
+        <v>37347</v>
       </c>
       <c r="E192" t="n">
-        <v>28505</v>
+        <v>3707</v>
       </c>
       <c r="F192" t="n">
-        <v>22940</v>
+        <v>21695</v>
       </c>
       <c r="G192" t="n">
-        <v>20993</v>
+        <v>19359</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B193" t="s">
         <v>223</v>
       </c>
       <c r="C193" t="n">
-        <v>333890</v>
+        <v>43933</v>
       </c>
       <c r="D193" t="n">
-        <v>281946</v>
+        <v>15428</v>
       </c>
       <c r="E193" t="n">
-        <v>51944</v>
+        <v>28505</v>
       </c>
       <c r="F193" t="n">
-        <v>169182</v>
+        <v>22940</v>
       </c>
       <c r="G193" t="n">
-        <v>164708</v>
+        <v>20993</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B194" t="s">
         <v>224</v>
       </c>
       <c r="C194" t="n">
-        <v>50590</v>
+        <v>333890</v>
       </c>
       <c r="D194" t="n">
-        <v>26722</v>
+        <v>281946</v>
       </c>
       <c r="E194" t="n">
-        <v>23868</v>
+        <v>51944</v>
       </c>
       <c r="F194" t="n">
-        <v>27999</v>
+        <v>169182</v>
       </c>
       <c r="G194" t="n">
-        <v>22591</v>
+        <v>164708</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B195" t="s">
         <v>225</v>
       </c>
       <c r="C195" t="n">
+        <v>50590</v>
+      </c>
+      <c r="D195" t="n">
+        <v>26722</v>
+      </c>
+      <c r="E195" t="n">
+        <v>23868</v>
+      </c>
+      <c r="F195" t="n">
+        <v>27999</v>
+      </c>
+      <c r="G195" t="n">
+        <v>22591</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" t="s">
+        <v>226</v>
+      </c>
+      <c r="C196" t="n">
         <v>3746</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D196" t="n">
         <v>1251</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E196" t="n">
         <v>2495</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F196" t="n">
         <v>2011</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G196" t="n">
         <v>1735</v>
       </c>
     </row>
